--- a/metadata/rnaseq/todo/Stanford TMC (RNAseq).xlsx
+++ b/metadata/rnaseq/todo/Stanford TMC (RNAseq).xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+          <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+          <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -774,12 +774,12 @@
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+          <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -818,17 +818,17 @@
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+          <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+          <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -840,12 +840,17 @@
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+          <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+          <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -857,12 +862,12 @@
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+          <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+          <t>Integrated DNA Technologies: Custom DNA Oligos</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -874,12 +879,12 @@
     <row r="15">
       <c r="E15" t="inlineStr">
         <is>
-          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+          <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -891,12 +896,12 @@
     <row r="16">
       <c r="E16" t="inlineStr">
         <is>
-          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+          <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+          <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -908,12 +913,12 @@
     <row r="17">
       <c r="E17" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+          <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+          <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -925,12 +930,12 @@
     <row r="18">
       <c r="E18" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+          <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+          <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -942,7 +947,12 @@
     <row r="19">
       <c r="E19" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+          <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -954,7 +964,7 @@
     <row r="20">
       <c r="E20" t="inlineStr">
         <is>
-          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+          <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -966,7 +976,7 @@
     <row r="21">
       <c r="E21" t="inlineStr">
         <is>
-          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+          <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -978,7 +988,7 @@
     <row r="22">
       <c r="E22" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+          <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -990,7 +1000,7 @@
     <row r="23">
       <c r="E23" t="inlineStr">
         <is>
-          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+          <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1002,7 +1012,7 @@
     <row r="24">
       <c r="E24" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1014,7 +1024,7 @@
     <row r="25">
       <c r="E25" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+          <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1026,7 +1036,7 @@
     <row r="26">
       <c r="E26" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1038,7 +1048,7 @@
     <row r="27">
       <c r="E27" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1050,7 +1060,7 @@
     <row r="28">
       <c r="E28" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
+          <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1062,7 +1072,7 @@
     <row r="29">
       <c r="E29" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1074,40 +1084,54 @@
     <row r="30">
       <c r="E30" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+          <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="inlineStr">
         <is>
-          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+          <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+          <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="inlineStr">
         <is>
-          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+          <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="inlineStr">
         <is>
-          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+          <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="inlineStr">
+        <is>
+          <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
         <is>
           <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
         </is>
@@ -5579,10 +5603,10 @@
   <autoFilter ref="A1:E193"/>
   <dataValidations count="4">
     <dataValidation sqref="D2 D5 D8 D13 D16 D20 D23 D26 D31 D34 D37 D40 D43 D46 D50 D52 D54 D57 D60 D63 D66 D70 D73 D77 D80 D83 D86 D89 D93 D97 D100 D103 D106 D111 D114 D117 D120 D122 D125 D128 D131 D135 D138 D141 D143 D146 D149 D151 D155 D158 D161 D164 D167 D173 D176 D179 D183 D186 D190" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$35</formula1>
+      <formula1>_validation_data!$E$1:$E$37</formula1>
     </dataValidation>
     <dataValidation sqref="D3 D6 D9 D14 D17 D24 D27 D32 D35 D38 D41 D44 D47 D55 D58 D61 D64 D67 D71 D74 D78 D81 D84 D87 D90 D94 D98 D101 D104 D107 D112 D115 D118 D123 D126 D129 D132 D136 D139 D144 D147 D152 D156 D159 D162 D165 D168 D174 D177 D180 D184 D191" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$12</formula1>
+      <formula1>_validation_data!$F$1:$F$13</formula1>
     </dataValidation>
     <dataValidation sqref="D4 D7 D10 D11 D12 D15 D18 D19 D21 D22 D25 D28 D29 D30 D33 D36 D39 D42 D45 D48 D49 D51 D53 D56 D59 D62 D65 D68 D72 D75 D79 D82 D85 D88 D91 D92 D95 D96 D99 D102 D105 D108 D109 D110 D113 D116 D119 D121 D124 D127 D130 D133 D134 D137 D140 D142 D145 D148 D150 D153 D154 D157 D160 D163 D166 D169 D170 D171 D172 D175 D178 D181 D182 D185 D187 D188 D189 D192 D193" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$H$1:$H$29</formula1>
@@ -19828,10 +19852,10 @@
       <formula1>_validation_data!$I$1:$I$5</formula1>
     </dataValidation>
     <dataValidation sqref="C27 C36 C59 C79 C102 C111 C162 C229 C250 C271 C290 C327 C343 C380 C389 C407 C424 C453 C489 C506 C524 C589 C599 C629 C652 C661 C675 C685 C703 C730 C757 C766 C782" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$35</formula1>
+      <formula1>_validation_data!$E$1:$E$37</formula1>
     </dataValidation>
     <dataValidation sqref="C28 C37 C60 C68 C80 C103 C112 C163 C171 C182 C230 C252 C272 C291 C328 C344 C381 C390 C409 C425 C440 C455 C491 C507 C526 C544 C569 C591 C600 C630 C653 C662 C677 C686 C705 C731 C746 C758 C767 C783" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$18</formula1>
+      <formula1>_validation_data!$G$1:$G$19</formula1>
     </dataValidation>
     <dataValidation sqref="C72 C175 C186 C234 C263 C276 C444 C480 C537 C548 C573 C666 C716 C750 C787" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$J$1:$J$4</formula1>
